--- a/JupyterNotebooks/AveragedIntensites/GossA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW40.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GossA-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GossA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.998294546913709</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.002854316891267</v>
+      </c>
+      <c r="D16">
+        <v>0.9872471667522974</v>
+      </c>
+      <c r="E16">
+        <v>1.001031114751944</v>
+      </c>
+      <c r="F16">
+        <v>0.9959984606489831</v>
+      </c>
+      <c r="G16">
+        <v>1.002854316891267</v>
+      </c>
+      <c r="H16">
+        <v>0.9872471667522974</v>
+      </c>
+      <c r="I16">
+        <v>0.9992449151762937</v>
+      </c>
+      <c r="J16">
+        <v>0.9964413401068091</v>
+      </c>
+      <c r="K16">
+        <v>1.000508245343851</v>
+      </c>
+      <c r="L16">
+        <v>0.9935001636362208</v>
+      </c>
+      <c r="M16">
+        <v>1.002854316891267</v>
+      </c>
+      <c r="N16">
+        <v>0.9941391407521205</v>
+      </c>
+      <c r="O16">
+        <v>0.9967827647611227</v>
+      </c>
+      <c r="P16">
+        <v>0.9971032154134581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.002854316891267</v>

--- a/JupyterNotebooks/AveragedIntensites/GossA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GossA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.968351999999999</v>
+        <v>1.002854316891267</v>
       </c>
       <c r="D10">
-        <v>1.018916000000002</v>
+        <v>0.9872471667522974</v>
       </c>
       <c r="E10">
-        <v>0.9937599999999988</v>
+        <v>1.001031114751944</v>
       </c>
       <c r="F10">
-        <v>1.002700000000001</v>
+        <v>0.9959984606489831</v>
       </c>
       <c r="G10">
-        <v>0.968351999999999</v>
+        <v>1.002854316891267</v>
       </c>
       <c r="H10">
-        <v>1.018916000000002</v>
+        <v>0.9872471667522974</v>
       </c>
       <c r="I10">
-        <v>0.9879279999999995</v>
+        <v>0.9992449151762937</v>
       </c>
       <c r="J10">
-        <v>1.002284000000001</v>
+        <v>0.9964413401068091</v>
       </c>
       <c r="K10">
-        <v>0.9933439999999993</v>
+        <v>1.000508245343851</v>
       </c>
       <c r="L10">
-        <v>1.013100000000001</v>
+        <v>0.9935001636362208</v>
       </c>
       <c r="M10">
-        <v>0.968351999999999</v>
+        <v>1.002854316891267</v>
       </c>
       <c r="N10">
-        <v>1.006338</v>
+        <v>0.9941391407521205</v>
       </c>
       <c r="O10">
-        <v>0.995932</v>
+        <v>0.9967827647611227</v>
       </c>
       <c r="P10">
-        <v>0.9975480000000002</v>
+        <v>0.9971032154134581</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9472367394914989</v>
       </c>
       <c r="D11">
-        <v>0.95</v>
+        <v>1.070486888695474</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>0.9818565324429342</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>1.01205968339379</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.9472367394914989</v>
       </c>
       <c r="H11">
-        <v>0.95</v>
+        <v>1.070486888695474</v>
       </c>
       <c r="I11">
-        <v>1.01</v>
+        <v>0.9728398100179658</v>
       </c>
       <c r="J11">
-        <v>0.99</v>
+        <v>1.012065742886216</v>
       </c>
       <c r="K11">
-        <v>1.01</v>
+        <v>0.9798171731292867</v>
       </c>
       <c r="L11">
-        <v>0.97</v>
+        <v>1.043445225480633</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0.9472367394914989</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>1.026171710569204</v>
       </c>
       <c r="O11">
-        <v>0.9875</v>
+        <v>1.002909961005924</v>
       </c>
       <c r="P11">
-        <v>0.99125</v>
+        <v>1.002475974442225</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000646604595207</v>
+        <v>0.9471030712398947</v>
       </c>
       <c r="D12">
-        <v>0.970001350041601</v>
+        <v>1.070801179443885</v>
       </c>
       <c r="E12">
-        <v>1.005326569062401</v>
+        <v>0.9818080554121084</v>
       </c>
       <c r="F12">
-        <v>0.9933240664063989</v>
+        <v>1.012114595338429</v>
       </c>
       <c r="G12">
-        <v>1.000646604595207</v>
+        <v>0.9471030712398947</v>
       </c>
       <c r="H12">
-        <v>0.970001350041601</v>
+        <v>1.070801179443885</v>
       </c>
       <c r="I12">
-        <v>1.005177136128004</v>
+        <v>0.972749918608185</v>
       </c>
       <c r="J12">
-        <v>0.9931421661183992</v>
+        <v>1.012118338479177</v>
       </c>
       <c r="K12">
-        <v>1.004664429056004</v>
+        <v>0.9797412165778205</v>
       </c>
       <c r="L12">
-        <v>0.9816862736383972</v>
+        <v>1.043649999067039</v>
       </c>
       <c r="M12">
-        <v>1.000646604595207</v>
+        <v>0.9471030712398947</v>
       </c>
       <c r="N12">
-        <v>0.9876639595520011</v>
+        <v>1.026304617427997</v>
       </c>
       <c r="O12">
-        <v>0.992324647526402</v>
+        <v>1.002956725358579</v>
       </c>
       <c r="P12">
-        <v>0.9942460743808016</v>
+        <v>1.002510796770817</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9982502128185649</v>
+        <v>0.9472416856172776</v>
       </c>
       <c r="D13">
-        <v>0.9977689282126982</v>
+        <v>1.070546069474258</v>
       </c>
       <c r="E13">
-        <v>0.9979164970698344</v>
+        <v>0.981872455987344</v>
       </c>
       <c r="F13">
-        <v>0.9981098240360677</v>
+        <v>1.012067348571772</v>
       </c>
       <c r="G13">
-        <v>0.9982502128185649</v>
+        <v>0.9472416856172776</v>
       </c>
       <c r="H13">
-        <v>0.9977689282126982</v>
+        <v>1.070546069474258</v>
       </c>
       <c r="I13">
-        <v>0.9976759754968517</v>
+        <v>0.9728299233626264</v>
       </c>
       <c r="J13">
-        <v>0.998197658276147</v>
+        <v>1.012071263389964</v>
       </c>
       <c r="K13">
-        <v>0.9979730445266938</v>
+        <v>0.9798059945153978</v>
       </c>
       <c r="L13">
-        <v>0.9981483004223717</v>
+        <v>1.043496575695898</v>
       </c>
       <c r="M13">
-        <v>0.9982274932845377</v>
+        <v>0.9472416856172776</v>
       </c>
       <c r="N13">
-        <v>0.9978427126412663</v>
+        <v>1.026209262730801</v>
       </c>
       <c r="O13">
-        <v>0.9980113655342914</v>
+        <v>1.002931889912663</v>
       </c>
       <c r="P13">
-        <v>0.9980050551074037</v>
+        <v>1.002491414576817</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9971433690234391</v>
+        <v>0.968351999999999</v>
       </c>
       <c r="D14">
-        <v>1.000685001585422</v>
+        <v>1.018916000000002</v>
       </c>
       <c r="E14">
-        <v>0.9972538087278395</v>
+        <v>0.9937599999999988</v>
       </c>
       <c r="F14">
-        <v>0.9975378309145505</v>
+        <v>1.002700000000001</v>
       </c>
       <c r="G14">
-        <v>0.9971433690234391</v>
+        <v>0.968351999999999</v>
       </c>
       <c r="H14">
-        <v>1.000685001585422</v>
+        <v>1.018916000000002</v>
       </c>
       <c r="I14">
-        <v>0.9977164866960754</v>
+        <v>0.9879279999999995</v>
       </c>
       <c r="J14">
-        <v>0.9990520354543554</v>
+        <v>1.002284000000001</v>
       </c>
       <c r="K14">
-        <v>0.9966896663048642</v>
+        <v>0.9933439999999993</v>
       </c>
       <c r="L14">
-        <v>0.9989326336441324</v>
+        <v>1.013100000000001</v>
       </c>
       <c r="M14">
-        <v>0.9971433690234391</v>
+        <v>0.968351999999999</v>
       </c>
       <c r="N14">
-        <v>0.9989694051566308</v>
+        <v>1.006338</v>
       </c>
       <c r="O14">
-        <v>0.9981550025628128</v>
+        <v>0.995932</v>
       </c>
       <c r="P14">
-        <v>0.9981263540438348</v>
+        <v>0.9975480000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9949227500625603</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.002713738979635</v>
+        <v>0.95</v>
       </c>
       <c r="E15">
-        <v>0.9966499906029859</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.9993060333282452</v>
+        <v>0.99</v>
       </c>
       <c r="G15">
-        <v>0.9949227500625603</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1.002713738979635</v>
+        <v>0.95</v>
       </c>
       <c r="I15">
-        <v>0.9961100661014979</v>
+        <v>1.01</v>
       </c>
       <c r="J15">
-        <v>0.9985810126844655</v>
+        <v>0.99</v>
       </c>
       <c r="K15">
-        <v>0.9967774659272081</v>
+        <v>1.01</v>
       </c>
       <c r="L15">
-        <v>1.001295317623073</v>
+        <v>0.97</v>
       </c>
       <c r="M15">
-        <v>0.9949227500625603</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9996818647913106</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0.9983981282433567</v>
+        <v>0.9875</v>
       </c>
       <c r="P15">
-        <v>0.998294546913709</v>
+        <v>0.99125</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.002854316891267</v>
+        <v>1.000646604595207</v>
       </c>
       <c r="D16">
-        <v>0.9872471667522974</v>
+        <v>0.970001350041601</v>
       </c>
       <c r="E16">
-        <v>1.001031114751944</v>
+        <v>1.005326569062401</v>
       </c>
       <c r="F16">
-        <v>0.9959984606489831</v>
+        <v>0.9933240664063989</v>
       </c>
       <c r="G16">
-        <v>1.002854316891267</v>
+        <v>1.000646604595207</v>
       </c>
       <c r="H16">
-        <v>0.9872471667522974</v>
+        <v>0.970001350041601</v>
       </c>
       <c r="I16">
-        <v>0.9992449151762937</v>
+        <v>1.005177136128004</v>
       </c>
       <c r="J16">
-        <v>0.9964413401068091</v>
+        <v>0.9931421661183992</v>
       </c>
       <c r="K16">
-        <v>1.000508245343851</v>
+        <v>1.004664429056004</v>
       </c>
       <c r="L16">
-        <v>0.9935001636362208</v>
+        <v>0.9816862736383972</v>
       </c>
       <c r="M16">
-        <v>1.002854316891267</v>
+        <v>1.000646604595207</v>
       </c>
       <c r="N16">
-        <v>0.9941391407521205</v>
+        <v>0.9876639595520011</v>
       </c>
       <c r="O16">
-        <v>0.9967827647611227</v>
+        <v>0.992324647526402</v>
       </c>
       <c r="P16">
-        <v>0.9971032154134581</v>
+        <v>0.9942460743808016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9982502128185649</v>
+      </c>
+      <c r="D17">
+        <v>0.9977689282126982</v>
+      </c>
+      <c r="E17">
+        <v>0.9979164970698344</v>
+      </c>
+      <c r="F17">
+        <v>0.9981098240360677</v>
+      </c>
+      <c r="G17">
+        <v>0.9982502128185649</v>
+      </c>
+      <c r="H17">
+        <v>0.9977689282126982</v>
+      </c>
+      <c r="I17">
+        <v>0.9976759754968517</v>
+      </c>
+      <c r="J17">
+        <v>0.998197658276147</v>
+      </c>
+      <c r="K17">
+        <v>0.9979730445266938</v>
+      </c>
+      <c r="L17">
+        <v>0.9981483004223717</v>
+      </c>
+      <c r="M17">
+        <v>0.9982274932845377</v>
+      </c>
+      <c r="N17">
+        <v>0.9978427126412663</v>
+      </c>
+      <c r="O17">
+        <v>0.9980113655342914</v>
+      </c>
+      <c r="P17">
+        <v>0.9980050551074037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9971433690234391</v>
+      </c>
+      <c r="D18">
+        <v>1.000685001585422</v>
+      </c>
+      <c r="E18">
+        <v>0.9972538087278395</v>
+      </c>
+      <c r="F18">
+        <v>0.9975378309145505</v>
+      </c>
+      <c r="G18">
+        <v>0.9971433690234391</v>
+      </c>
+      <c r="H18">
+        <v>1.000685001585422</v>
+      </c>
+      <c r="I18">
+        <v>0.9977164866960754</v>
+      </c>
+      <c r="J18">
+        <v>0.9990520354543554</v>
+      </c>
+      <c r="K18">
+        <v>0.9966896663048642</v>
+      </c>
+      <c r="L18">
+        <v>0.9989326336441324</v>
+      </c>
+      <c r="M18">
+        <v>0.9971433690234391</v>
+      </c>
+      <c r="N18">
+        <v>0.9989694051566308</v>
+      </c>
+      <c r="O18">
+        <v>0.9981550025628128</v>
+      </c>
+      <c r="P18">
+        <v>0.9981263540438348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9949227500625603</v>
+      </c>
+      <c r="D19">
+        <v>1.002713738979635</v>
+      </c>
+      <c r="E19">
+        <v>0.9966499906029859</v>
+      </c>
+      <c r="F19">
+        <v>0.9993060333282452</v>
+      </c>
+      <c r="G19">
+        <v>0.9949227500625603</v>
+      </c>
+      <c r="H19">
+        <v>1.002713738979635</v>
+      </c>
+      <c r="I19">
+        <v>0.9961100661014979</v>
+      </c>
+      <c r="J19">
+        <v>0.9985810126844655</v>
+      </c>
+      <c r="K19">
+        <v>0.9967774659272081</v>
+      </c>
+      <c r="L19">
+        <v>1.001295317623073</v>
+      </c>
+      <c r="M19">
+        <v>0.9949227500625603</v>
+      </c>
+      <c r="N19">
+        <v>0.9996818647913106</v>
+      </c>
+      <c r="O19">
+        <v>0.9983981282433567</v>
+      </c>
+      <c r="P19">
+        <v>0.998294546913709</v>
       </c>
     </row>
   </sheetData>
